--- a/data/Korea_Petrochemical_MACC_Database.xlsx
+++ b/data/Korea_Petrochemical_MACC_Database.xlsx
@@ -10,10 +10,11 @@
     <sheet name="TechBands_2023" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="AlternativeTechnologies" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="AlternativeCosts" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="RegionalConstraints" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MarketConstraints" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="PolicyFramework" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="EmissionsTargets" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="RegionalFacilities" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RegionalConstraints" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MarketConstraints" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PolicyFramework" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="EmissionsTargets" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1936,6 +1937,513 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FacilityID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NCC_Capacity_kt_per_year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BTX_Capacity_kt_per_year</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>C4_Capacity_kt_per_year</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Propylene_Capacity_kt_per_year</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TechnicalReadiness_Level</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Infrastructure_Score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Labor_Cost_Index</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Electricity_Price_USD_per_MWh</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen_Access_Score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Year_Established</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Environmental_Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Yeosu_LG_Chem</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yeosu</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LG Chem</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3380</v>
+      </c>
+      <c r="E2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1980</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>95</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>118</v>
+      </c>
+      <c r="L2" t="n">
+        <v>80</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Yeosu_GS_Caltex</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yeosu</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GS Caltex</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>900</v>
+      </c>
+      <c r="E3" t="n">
+        <v>600</v>
+      </c>
+      <c r="F3" t="n">
+        <v>200</v>
+      </c>
+      <c r="G3" t="n">
+        <v>970</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>90</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>118</v>
+      </c>
+      <c r="L3" t="n">
+        <v>75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1967</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yeosu_Lotte_Chemical</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yeosu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lotte Chemical</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>700</v>
+      </c>
+      <c r="F4" t="n">
+        <v>250</v>
+      </c>
+      <c r="G4" t="n">
+        <v>800</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>118</v>
+      </c>
+      <c r="L4" t="n">
+        <v>85</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Yeosu_Hanwha_Chemical</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yeosu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hanwha Chemical</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>850</v>
+      </c>
+      <c r="E5" t="n">
+        <v>400</v>
+      </c>
+      <c r="F5" t="n">
+        <v>150</v>
+      </c>
+      <c r="G5" t="n">
+        <v>450</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="n">
+        <v>118</v>
+      </c>
+      <c r="L5" t="n">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1986</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Daesan_HD_Hyundai</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daesan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>HD Hyundai Chemical</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>850</v>
+      </c>
+      <c r="E6" t="n">
+        <v>500</v>
+      </c>
+      <c r="F6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" t="n">
+        <v>451</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>90</v>
+      </c>
+      <c r="J6" t="n">
+        <v>95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>115</v>
+      </c>
+      <c r="L6" t="n">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1980</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Daesan_LG_Chem</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daesan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LG Chem</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>600</v>
+      </c>
+      <c r="E7" t="n">
+        <v>300</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>300</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>95</v>
+      </c>
+      <c r="K7" t="n">
+        <v>115</v>
+      </c>
+      <c r="L7" t="n">
+        <v>80</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1995</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ulsan_KPIC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Korea Petrochemical Ind. Co.</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>900</v>
+      </c>
+      <c r="E8" t="n">
+        <v>400</v>
+      </c>
+      <c r="F8" t="n">
+        <v>150</v>
+      </c>
+      <c r="G8" t="n">
+        <v>560</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>90</v>
+      </c>
+      <c r="K8" t="n">
+        <v>112</v>
+      </c>
+      <c r="L8" t="n">
+        <v>70</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1972</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ulsan_SK_Innovation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SK Innovation</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>500</v>
+      </c>
+      <c r="E9" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>250</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>80</v>
+      </c>
+      <c r="J9" t="n">
+        <v>90</v>
+      </c>
+      <c r="K9" t="n">
+        <v>112</v>
+      </c>
+      <c r="L9" t="n">
+        <v>65</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1995</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2093,7 +2601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2216,7 +2724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2388,7 +2896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/data/Korea_Petrochemical_MACC_Database.xlsx
+++ b/data/Korea_Petrochemical_MACC_Database.xlsx
@@ -11,10 +11,7 @@
     <sheet name="AlternativeTechnologies" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="AlternativeCosts" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="RegionalFacilities" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="RegionalConstraints" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MarketConstraints" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="PolicyFramework" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="EmissionsTargets" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="EmissionsTargets" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2444,464 +2441,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TechGroup</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ElectricityPrice_USD_per_MWh</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HydrogenPrice_USD_per_kg</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>NaturalGasPrice_USD_per_GJ</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CarbonPrice_USD_per_tCO2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>RegulatorySupport</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>InfrastructureReadiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Korea</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>118</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>28</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Korea</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BTX</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>118</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Korea</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>118</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>TechGroup</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DemandGrowth_pct_per_year</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ProductPrice_USD_per_t</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MarketVolatility</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ImportDependency_pct</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CapacityUtilization_pct</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20</v>
-      </c>
-      <c r="F2" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BTX</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>975</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Very High</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F4" t="n">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CarbonPrice_USD_per_tCO2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>RenewableTarget_pct</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HydrogenInfrastructure</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TechSupport_Level</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Limited</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2030</v>
-      </c>
-      <c r="B3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Developing</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2035</v>
-      </c>
-      <c r="B4" t="n">
-        <v>80</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2040</v>
-      </c>
-      <c r="B5" t="n">
-        <v>120</v>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2045</v>
-      </c>
-      <c r="B6" t="n">
-        <v>150</v>
-      </c>
-      <c r="C6" t="n">
-        <v>85</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Extensive</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2050</v>
-      </c>
-      <c r="B7" t="n">
-        <v>200</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
